--- a/diaries/diary-Yijia-Zhang.xlsx
+++ b/diaries/diary-Yijia-Zhang.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -311,7 +311,7 @@
     <t>Score was out</t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe I didn’t study hard enough?  Not sure what costed my 6 points… </t>
+    <t xml:space="preserve">Maybe I didn’t study hard enough?  Not sure what costed my 6 points… Got to study harder for the final. I admit that I did not look at certain useful links provided in the slides. Will be studying those. </t>
   </si>
   <si>
     <t>Depressed</t>
@@ -320,7 +320,7 @@
     <t>Refresher on design patterns</t>
   </si>
   <si>
-    <t xml:space="preserve">Have some previous knowledge on design patterns, so the lecture content was not so overwhelming. The guest speaker was really passionate about his work!  </t>
+    <t>Have some previous knowledge on design patterns, so the lecture content was not so overwhelming. So many of the design patterns are about proper and efficient usage of abstraction, and this is what I have been paying attention to when working on projects. But it is sometimes hard to foresee the future development of the system, so that restructure of the code is often needed. When I find that they are hard to be restructured,  I would then realize that I may have violated certain principles that have made the system un-agile. It is certainly the choice of design patterns and the ability of identifying scenarios where they can be effetely implemented that I need to improve upon.                     The guest speaker was really passionate about his work!  It’s encouraging to see someone how genuinely loves what he does. (This is not to say the other speakers hate what they do, but today’s speaker was on another level)</t>
   </si>
   <si>
     <t>Was in a light mood</t>
@@ -353,7 +353,7 @@
     <t>Finished (most of the) homework.</t>
   </si>
   <si>
-    <t xml:space="preserve">A major topic today was whether View Adapters in Android is a special kind of usage of Adapter pattern. By strict definition it is not but interns of functionalities and end results (the data coming out of the adapter) it seems to fit some parts of the description. </t>
+    <t>A major topic today was whether View Adapters in Android is a special kind of usage of Adapter pattern. By strict definition it is not but interns of functionalities and end results (the data coming out of the adapter) it seems to fit some parts of the description. But I chose not to put it there, as to me it is more of an Android feature/property than a deliberate design pattern.</t>
   </si>
   <si>
     <t>A bit confused</t>
@@ -372,6 +372,54 @@
   </si>
   <si>
     <t>Reliefed.</t>
+  </si>
+  <si>
+    <t>21:00 - 2:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start working on the pull request. Get familiar with that part of the system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard to say… Certainly gained new knowledge toward the system, but there is certainly more related parts that I have no touched on yet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Telegram system is simply too big. The lengthy files also makes browsing through lines and jumping between methods harder.  We were able to identify some related files (which took us like an hour…), but it always feels like there are more. The process was particularly hard because some variable and method names are not intuitive enough for us to search for them.  </t>
+  </si>
+  <si>
+    <t>Kinda frustrated. The system just keeps beating us down when we thought we knew it better (in fact we did, but just not enough tot crack everything).</t>
+  </si>
+  <si>
+    <t>3:00-8:00</t>
+  </si>
+  <si>
+    <t>Pull request</t>
+  </si>
+  <si>
+    <t>Keep looking for critical components</t>
+  </si>
+  <si>
+    <t>Key methods and variables are further discovered. However there’s simply more out there somewhere. I tried to make changes to them and most of them were not effective. I know from this that I have not identified enough parts yet. The system was too large and interrelated. I had to write things down so that I do not forget where I’ve been and even what I was looking for. BUT WRITING THINGS DOWN DOES IMPROVE EFFICIENCY!</t>
+  </si>
+  <si>
+    <t>Trying to stay patient.</t>
+  </si>
+  <si>
+    <t>3/16-3/17</t>
+  </si>
+  <si>
+    <t>21:00 - 8:00</t>
+  </si>
+  <si>
+    <t>Test cases-part of the homework</t>
+  </si>
+  <si>
+    <t>Finish it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hard part was to identify a class that did not have too much dependencies while most of them do. We tried working on one class that seemed to be reasonability independent but we still weren’t able to fully mock some of the dependencies. There were hard-coded NEW’s in constructors, which is definitely not a testable design. We had to turn to an even simpler class to test on it. Despite spending some time on partition the input, we were able to pull that off. White box testing is certainly a process that teaches on A LOT about an existing system, as it requires one to scrutinize the implementation.                                        But then we had to turn back to the pull request part to make on last disparate trial. We have identified many related modules and variables but…                                                       The work seems to be doable, but just not within the given timeframe, unfortunately.                                   </t>
+  </si>
+  <si>
+    <t>Depressed     I HATE TELEGRAM PROJ</t>
   </si>
 </sst>
 </file>
@@ -608,7 +656,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -727,24 +775,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="11" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -2306,7 +2345,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" ht="104.45" customHeight="1">
+    <row r="26" ht="401.05" customHeight="1">
       <c r="A26" s="39">
         <v>43888</v>
       </c>
@@ -2322,10 +2361,10 @@
       <c r="E26" t="s" s="40">
         <v>84</v>
       </c>
-      <c r="F26" t="s" s="41">
+      <c r="F26" t="s" s="20">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="42">
+      <c r="G26" t="s" s="21">
         <v>86</v>
       </c>
     </row>
@@ -2352,7 +2391,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" ht="114.15" customHeight="1">
+    <row r="28" ht="174.1" customHeight="1">
       <c r="A28" s="38">
         <v>43894</v>
       </c>
@@ -2398,871 +2437,909 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" ht="48.6" customHeight="1">
-      <c r="A30" s="43">
+    <row r="30" ht="164.35" customHeight="1">
+      <c r="A30" s="38">
         <v>43902</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" ht="15.5" customHeight="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" ht="15.5" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="36"/>
+      <c r="B30" t="s" s="20">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s" s="20">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s" s="20">
+        <v>105</v>
+      </c>
+      <c r="F30" t="s" s="20">
+        <v>106</v>
+      </c>
+      <c r="G30" t="s" s="21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" ht="216.9" customHeight="1">
+      <c r="A31" s="38">
+        <v>43905</v>
+      </c>
+      <c r="B31" t="s" s="20">
+        <v>108</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" t="s" s="20">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s" s="20">
+        <v>110</v>
+      </c>
+      <c r="F31" t="s" s="20">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s" s="21">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" ht="373.6" customHeight="1">
+      <c r="A32" t="s" s="33">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s" s="20">
+        <v>114</v>
+      </c>
+      <c r="C32" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s" s="20">
+        <v>115</v>
+      </c>
+      <c r="E32" t="s" s="20">
+        <v>116</v>
+      </c>
+      <c r="F32" t="s" s="20">
+        <v>117</v>
+      </c>
+      <c r="G32" t="s" s="21">
+        <v>118</v>
+      </c>
     </row>
     <row r="33" ht="15.5" customHeight="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="36"/>
     </row>
     <row r="34" ht="15.5" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="36"/>
     </row>
     <row r="35" ht="15.5" customHeight="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="36"/>
     </row>
     <row r="36" ht="15.5" customHeight="1">
-      <c r="A36" s="45"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="36"/>
     </row>
     <row r="37" ht="15.5" customHeight="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="36"/>
     </row>
     <row r="38" ht="15.5" customHeight="1">
-      <c r="A38" s="45"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="36"/>
     </row>
     <row r="39" ht="15.5" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="36"/>
     </row>
     <row r="40" ht="15.5" customHeight="1">
-      <c r="A40" s="45"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="36"/>
     </row>
     <row r="41" ht="15.5" customHeight="1">
-      <c r="A41" s="45"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="36"/>
     </row>
     <row r="42" ht="15.5" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="36"/>
     </row>
     <row r="43" ht="15.5" customHeight="1">
-      <c r="A43" s="45"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
       <c r="G43" s="36"/>
     </row>
     <row r="44" ht="15.5" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="36"/>
     </row>
     <row r="45" ht="15.5" customHeight="1">
-      <c r="A45" s="45"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="36"/>
     </row>
     <row r="46" ht="15.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="36"/>
     </row>
     <row r="47" ht="15.5" customHeight="1">
-      <c r="A47" s="45"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="36"/>
     </row>
     <row r="48" ht="15.5" customHeight="1">
-      <c r="A48" s="45"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="36"/>
     </row>
     <row r="49" ht="15.5" customHeight="1">
-      <c r="A49" s="45"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
+      <c r="A49" s="41"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
       <c r="G49" s="36"/>
     </row>
     <row r="50" ht="15.5" customHeight="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
+      <c r="A50" s="41"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="36"/>
     </row>
     <row r="51" ht="15.5" customHeight="1">
-      <c r="A51" s="45"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
       <c r="G51" s="36"/>
     </row>
     <row r="52" ht="15.5" customHeight="1">
-      <c r="A52" s="45"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="36"/>
     </row>
     <row r="53" ht="15.5" customHeight="1">
-      <c r="A53" s="45"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
       <c r="G53" s="36"/>
     </row>
     <row r="54" ht="15.5" customHeight="1">
-      <c r="A54" s="45"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
+      <c r="A54" s="41"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
       <c r="G54" s="36"/>
     </row>
     <row r="55" ht="15.5" customHeight="1">
-      <c r="A55" s="45"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="44"/>
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
       <c r="G55" s="36"/>
     </row>
     <row r="56" ht="15.5" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
       <c r="G56" s="36"/>
     </row>
     <row r="57" ht="15.5" customHeight="1">
-      <c r="A57" s="45"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
+      <c r="A57" s="41"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="36"/>
     </row>
     <row r="58" ht="15.5" customHeight="1">
-      <c r="A58" s="45"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
+      <c r="A58" s="41"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="36"/>
     </row>
     <row r="59" ht="15.5" customHeight="1">
-      <c r="A59" s="45"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="36"/>
     </row>
     <row r="60" ht="15.5" customHeight="1">
-      <c r="A60" s="45"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="36"/>
     </row>
     <row r="61" ht="15.5" customHeight="1">
-      <c r="A61" s="45"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
+      <c r="A61" s="41"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
       <c r="G61" s="36"/>
     </row>
     <row r="62" ht="15.5" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
+      <c r="A62" s="41"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
       <c r="G62" s="36"/>
     </row>
     <row r="63" ht="15.5" customHeight="1">
-      <c r="A63" s="45"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
       <c r="G63" s="36"/>
     </row>
     <row r="64" ht="15.5" customHeight="1">
-      <c r="A64" s="45"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
+      <c r="A64" s="41"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
       <c r="G64" s="36"/>
     </row>
     <row r="65" ht="15.5" customHeight="1">
-      <c r="A65" s="45"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
+      <c r="A65" s="41"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
       <c r="G65" s="36"/>
     </row>
     <row r="66" ht="15.5" customHeight="1">
-      <c r="A66" s="45"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
+      <c r="A66" s="41"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
       <c r="G66" s="36"/>
     </row>
     <row r="67" ht="15.5" customHeight="1">
-      <c r="A67" s="45"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
+      <c r="A67" s="41"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
       <c r="G67" s="36"/>
     </row>
     <row r="68" ht="15.5" customHeight="1">
-      <c r="A68" s="45"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
+      <c r="A68" s="41"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
       <c r="G68" s="36"/>
     </row>
     <row r="69" ht="15.5" customHeight="1">
-      <c r="A69" s="45"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
+      <c r="A69" s="41"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
       <c r="G69" s="36"/>
     </row>
     <row r="70" ht="15.5" customHeight="1">
-      <c r="A70" s="45"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
       <c r="G70" s="36"/>
     </row>
     <row r="71" ht="15.5" customHeight="1">
-      <c r="A71" s="45"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
       <c r="G71" s="36"/>
     </row>
     <row r="72" ht="15.5" customHeight="1">
-      <c r="A72" s="45"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
       <c r="G72" s="36"/>
     </row>
     <row r="73" ht="15.5" customHeight="1">
-      <c r="A73" s="45"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
       <c r="G73" s="36"/>
     </row>
     <row r="74" ht="15.5" customHeight="1">
-      <c r="A74" s="45"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
       <c r="G74" s="36"/>
     </row>
     <row r="75" ht="15.5" customHeight="1">
-      <c r="A75" s="45"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
       <c r="G75" s="36"/>
     </row>
     <row r="76" ht="15.5" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
       <c r="G76" s="36"/>
     </row>
     <row r="77" ht="15.5" customHeight="1">
-      <c r="A77" s="45"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
       <c r="G77" s="36"/>
     </row>
     <row r="78" ht="15.5" customHeight="1">
-      <c r="A78" s="45"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
       <c r="G78" s="36"/>
     </row>
     <row r="79" ht="15.5" customHeight="1">
-      <c r="A79" s="45"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="36"/>
     </row>
     <row r="80" ht="15.5" customHeight="1">
-      <c r="A80" s="45"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
       <c r="G80" s="36"/>
     </row>
     <row r="81" ht="15.5" customHeight="1">
-      <c r="A81" s="45"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
       <c r="G81" s="36"/>
     </row>
     <row r="82" ht="15.5" customHeight="1">
-      <c r="A82" s="45"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
       <c r="G82" s="36"/>
     </row>
     <row r="83" ht="15.5" customHeight="1">
-      <c r="A83" s="45"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
       <c r="G83" s="36"/>
     </row>
     <row r="84" ht="15.5" customHeight="1">
-      <c r="A84" s="45"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
       <c r="G84" s="36"/>
     </row>
     <row r="85" ht="15.5" customHeight="1">
-      <c r="A85" s="45"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="36"/>
     </row>
     <row r="86" ht="15.5" customHeight="1">
-      <c r="A86" s="45"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
       <c r="G86" s="36"/>
     </row>
     <row r="87" ht="15.5" customHeight="1">
-      <c r="A87" s="45"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
       <c r="G87" s="36"/>
     </row>
     <row r="88" ht="15.5" customHeight="1">
-      <c r="A88" s="45"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
       <c r="G88" s="36"/>
     </row>
     <row r="89" ht="15.5" customHeight="1">
-      <c r="A89" s="45"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
       <c r="G89" s="36"/>
     </row>
     <row r="90" ht="15.5" customHeight="1">
-      <c r="A90" s="45"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
       <c r="G90" s="36"/>
     </row>
     <row r="91" ht="15.5" customHeight="1">
-      <c r="A91" s="45"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
       <c r="G91" s="36"/>
     </row>
     <row r="92" ht="15.5" customHeight="1">
-      <c r="A92" s="45"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
       <c r="G92" s="36"/>
     </row>
     <row r="93" ht="15.5" customHeight="1">
-      <c r="A93" s="45"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
       <c r="G93" s="36"/>
     </row>
     <row r="94" ht="15.5" customHeight="1">
-      <c r="A94" s="45"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
       <c r="G94" s="36"/>
     </row>
     <row r="95" ht="15.5" customHeight="1">
-      <c r="A95" s="45"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
       <c r="G95" s="36"/>
     </row>
     <row r="96" ht="15.5" customHeight="1">
-      <c r="A96" s="45"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="44"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
       <c r="G96" s="36"/>
     </row>
     <row r="97" ht="15.5" customHeight="1">
-      <c r="A97" s="45"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
       <c r="G97" s="36"/>
     </row>
     <row r="98" ht="15.5" customHeight="1">
-      <c r="A98" s="45"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
       <c r="G98" s="36"/>
     </row>
     <row r="99" ht="15.5" customHeight="1">
-      <c r="A99" s="45"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
       <c r="G99" s="36"/>
     </row>
     <row r="100" ht="15.5" customHeight="1">
-      <c r="A100" s="45"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="42"/>
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
       <c r="G100" s="36"/>
     </row>
     <row r="101" ht="15.5" customHeight="1">
-      <c r="A101" s="45"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="44"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="44"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="42"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
       <c r="G101" s="36"/>
     </row>
     <row r="102" ht="15.5" customHeight="1">
-      <c r="A102" s="45"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
       <c r="G102" s="36"/>
     </row>
     <row r="103" ht="15.5" customHeight="1">
-      <c r="A103" s="45"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
+      <c r="A103" s="41"/>
+      <c r="B103" s="42"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
       <c r="G103" s="36"/>
     </row>
     <row r="104" ht="15.5" customHeight="1">
-      <c r="A104" s="45"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
+      <c r="A104" s="41"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
       <c r="G104" s="36"/>
     </row>
     <row r="105" ht="15.5" customHeight="1">
-      <c r="A105" s="45"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
+      <c r="A105" s="41"/>
+      <c r="B105" s="42"/>
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
       <c r="G105" s="36"/>
     </row>
     <row r="106" ht="15.5" customHeight="1">
-      <c r="A106" s="45"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="44"/>
-      <c r="E106" s="44"/>
-      <c r="F106" s="44"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
       <c r="G106" s="36"/>
     </row>
     <row r="107" ht="15.5" customHeight="1">
-      <c r="A107" s="45"/>
-      <c r="B107" s="44"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="44"/>
+      <c r="A107" s="41"/>
+      <c r="B107" s="42"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
       <c r="G107" s="36"/>
     </row>
     <row r="108" ht="15.5" customHeight="1">
-      <c r="A108" s="45"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
+      <c r="A108" s="41"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
       <c r="G108" s="36"/>
     </row>
     <row r="109" ht="15.5" customHeight="1">
-      <c r="A109" s="45"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
+      <c r="A109" s="41"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
       <c r="G109" s="36"/>
     </row>
     <row r="110" ht="15.5" customHeight="1">
-      <c r="A110" s="45"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
+      <c r="A110" s="41"/>
+      <c r="B110" s="42"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
       <c r="G110" s="36"/>
     </row>
     <row r="111" ht="15.5" customHeight="1">
-      <c r="A111" s="45"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="44"/>
-      <c r="E111" s="44"/>
-      <c r="F111" s="44"/>
+      <c r="A111" s="41"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="42"/>
       <c r="G111" s="36"/>
     </row>
     <row r="112" ht="15.5" customHeight="1">
-      <c r="A112" s="45"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
       <c r="G112" s="36"/>
     </row>
     <row r="113" ht="15.5" customHeight="1">
-      <c r="A113" s="45"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="42"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
       <c r="G113" s="36"/>
     </row>
     <row r="114" ht="15.5" customHeight="1">
-      <c r="A114" s="45"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="42"/>
+      <c r="C114" s="42"/>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42"/>
+      <c r="F114" s="42"/>
       <c r="G114" s="36"/>
     </row>
     <row r="115" ht="15.5" customHeight="1">
-      <c r="A115" s="45"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
+      <c r="A115" s="41"/>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42"/>
+      <c r="F115" s="42"/>
       <c r="G115" s="36"/>
     </row>
     <row r="116" ht="15.5" customHeight="1">
-      <c r="A116" s="45"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
+      <c r="A116" s="41"/>
+      <c r="B116" s="42"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
       <c r="G116" s="36"/>
     </row>
     <row r="117" ht="15.5" customHeight="1">
-      <c r="A117" s="45"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
       <c r="G117" s="36"/>
     </row>
     <row r="118" ht="15.5" customHeight="1">
-      <c r="A118" s="45"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
       <c r="G118" s="36"/>
     </row>
     <row r="119" ht="15.5" customHeight="1">
-      <c r="A119" s="45"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="42"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
       <c r="G119" s="36"/>
     </row>
     <row r="120" ht="15.5" customHeight="1">
-      <c r="A120" s="45"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="42"/>
       <c r="G120" s="36"/>
     </row>
     <row r="121" ht="15.5" customHeight="1">
-      <c r="A121" s="45"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="42"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42"/>
+      <c r="F121" s="42"/>
       <c r="G121" s="36"/>
     </row>
     <row r="122" ht="15.5" customHeight="1">
-      <c r="A122" s="45"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
+      <c r="A122" s="41"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
       <c r="G122" s="36"/>
     </row>
     <row r="123" ht="15.5" customHeight="1">
-      <c r="A123" s="45"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="42"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42"/>
+      <c r="F123" s="42"/>
       <c r="G123" s="36"/>
     </row>
     <row r="124" ht="15.5" customHeight="1">
-      <c r="A124" s="45"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="44"/>
-      <c r="D124" s="44"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="44"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
       <c r="G124" s="36"/>
     </row>
     <row r="125" ht="15.5" customHeight="1">
-      <c r="A125" s="46"/>
-      <c r="B125" s="47"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="47"/>
-      <c r="E125" s="47"/>
-      <c r="F125" s="47"/>
-      <c r="G125" s="48"/>
+      <c r="A125" s="43"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-Yijia-Zhang.xlsx
+++ b/diaries/diary-Yijia-Zhang.xlsx
@@ -383,7 +383,7 @@
     <t xml:space="preserve">Hard to say… Certainly gained new knowledge toward the system, but there is certainly more related parts that I have no touched on yet. </t>
   </si>
   <si>
-    <t xml:space="preserve">The Telegram system is simply too big. The lengthy files also makes browsing through lines and jumping between methods harder.  We were able to identify some related files (which took us like an hour…), but it always feels like there are more. The process was particularly hard because some variable and method names are not intuitive enough for us to search for them.  </t>
+    <t xml:space="preserve">Quarter wrap-up in lecture. The many expert practices from the span of the quarter and the advanced practices introduced today pretty summarized what we have been told to do for the quarter. Some may be used more often than the others, but it certainly helps to keep all of them in mind. Again, some of the practices are, tot some degree, commended senses as well. The key is to actually practice them.                                               The Telegram system is simply too big. The lengthy files also makes browsing through lines and jumping between methods harder.  We were able to identify some related files (which took us like an hour…), but it always feels like there are more. The process was particularly hard because some variable and method names are not intuitive enough for us to search for them.                      </t>
   </si>
   <si>
     <t>Kinda frustrated. The system just keeps beating us down when we thought we knew it better (in fact we did, but just not enough tot crack everything).</t>
